--- a/biology/Botanique/Salix_gooddingii/Salix_gooddingii.xlsx
+++ b/biology/Botanique/Salix_gooddingii/Salix_gooddingii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Salix gooddingii est une espèce de saule connu sous le nom de Saule de Goodding (en anglais, Goodding's willow, ou Goodding's black willow). Il a été nommé d'après son collecteur, Leslie Newton Goodding[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Salix gooddingii est une espèce de saule connu sous le nom de Saule de Goodding (en anglais, Goodding's willow, ou Goodding's black willow). Il a été nommé d'après son collecteur, Leslie Newton Goodding.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Écorce devenant vite sombre.
 			Dans l'arboretum de Los Angeles.
 			Dans son milieu naturel.
-Salix gooddingii est natif du sud-ouest des États-Unis et du nord du Mexique où il prospère en milieu humide dans différents types d'habitats, des montagnes au désert. C'est une espèce riparienne commune et un arbre atteignant de 3 à 30 m de haut, avec une épaisse écorce fissurée et déchiquetée, garnie de nombreuses branches. Les feuilles vont jusqu'à 13 cm de long, sont généralement lancéolées et finement dentées. Les jeunes feuilles sont duveteuses. Les chatons mesurent jusqu'à 8 cm de long[1].
+Salix gooddingii est natif du sud-ouest des États-Unis et du nord du Mexique où il prospère en milieu humide dans différents types d'habitats, des montagnes au désert. C'est une espèce riparienne commune et un arbre atteignant de 3 à 30 m de haut, avec une épaisse écorce fissurée et déchiquetée, garnie de nombreuses branches. Les feuilles vont jusqu'à 13 cm de long, sont généralement lancéolées et finement dentées. Les jeunes feuilles sont duveteuses. Les chatons mesurent jusqu'à 8 cm de long.
 </t>
         </is>
       </c>
